--- a/Backend/src/controllers/datos.xlsx
+++ b/Backend/src/controllers/datos.xlsx
@@ -5,14 +5,13 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Data1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Data2" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -23,25 +22,40 @@
     <t>Temp</t>
   </si>
   <si>
+    <t>I. calor</t>
+  </si>
+  <si>
     <t>Hum</t>
   </si>
   <si>
     <t>Hum Suelo</t>
   </si>
   <si>
-    <t>2022-03-27T13:32:37.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-27T13:33:17.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-27T13:33:44.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-27T13:33:56.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-27T13:44:49.000Z</t>
+    <t>Luz (Luxes)</t>
+  </si>
+  <si>
+    <t>Ventilacion (on/off)</t>
+  </si>
+  <si>
+    <t>Luces (on/off)</t>
+  </si>
+  <si>
+    <t>Riego (on/off)</t>
+  </si>
+  <si>
+    <t>2022-08-29T20:00:35.000Z</t>
+  </si>
+  <si>
+    <t>2022-08-30T20:30:47.000Z</t>
+  </si>
+  <si>
+    <t>2022-08-30T21:00:40.000Z</t>
+  </si>
+  <si>
+    <t>2022-08-30T22:00:17.000Z</t>
+  </si>
+  <si>
+    <t>2022-08-30T22:30:31.000Z</t>
   </si>
 </sst>
 </file>
@@ -418,14 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="5" width="30" customWidth="1"/>
+    <col min="2" max="8" width="30" customWidth="1"/>
+    <col min="9" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,107 +456,165 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>130</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>56</v>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>130</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>44</v>
-      </c>
-      <c r="D3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
         <v>23</v>
       </c>
-      <c r="E3">
+      <c r="F6">
         <v>55</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="5" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="G6">
+        <v>130</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>65</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>77</v>
-      </c>
-      <c r="E4">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
